--- a/20140714-smoking/builds/development/data/maindata.xlsx
+++ b/20140714-smoking/builds/development/data/maindata.xlsx
@@ -10,7 +10,7 @@
     <sheet name="mncountySmoking" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -344,13 +344,31 @@
   </si>
   <si>
     <t>Source: IHME, U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>IHME, U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>mncountySmoking</t>
+  </si>
+  <si>
+    <t>Smoking rates by Minnesota county from 1996 to 2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -358,6 +376,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -378,14 +414,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5986,26 +6027,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2014</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
